--- a/output/vars_period.xlsx
+++ b/output/vars_period.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">1982</t>
   </si>
@@ -50,19 +53,31 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wc_ts</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -437,157 +452,172 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
